--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" state="visible" r:id="rId2"/>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Username</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.skillswap.pro/Home</t>
+    <t xml:space="preserve">http://localhost:5000</t>
   </si>
   <si>
     <t xml:space="preserve">sanaram3@gmail.com</t>
@@ -160,7 +160,7 @@
     <t xml:space="preserve">@New, @old</t>
   </si>
   <si>
-    <t xml:space="preserve">15/06/2019</t>
+    <t xml:space="preserve">15/12/2019</t>
   </si>
 </sst>
 </file>
@@ -451,8 +451,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -487,7 +487,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://www.skillswap.pro/Home"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://localhost:5000"/>
     <hyperlink ref="B2" r:id="rId2" display="sanaram3@gmail.com"/>
     <hyperlink ref="C2" r:id="rId3" display="Study@ind1"/>
   </hyperlinks>
@@ -607,8 +607,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -654,7 +654,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="6" customFormat="true" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="6" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>40</v>
       </c>

--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" state="visible" r:id="rId2"/>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Username</t>
   </si>
   <si>
-    <t xml:space="preserve">http://localhost:5000</t>
+    <t xml:space="preserve">http://www.skillswap.pro/Home</t>
   </si>
   <si>
     <t xml:space="preserve">sanaram3@gmail.com</t>
@@ -160,7 +160,7 @@
     <t xml:space="preserve">@New, @old</t>
   </si>
   <si>
-    <t xml:space="preserve">15/12/2019</t>
+    <t xml:space="preserve">15/06/2019</t>
   </si>
 </sst>
 </file>
@@ -451,8 +451,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -487,7 +487,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://localhost:5000"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://www.skillswap.pro/Home"/>
     <hyperlink ref="B2" r:id="rId2" display="sanaram3@gmail.com"/>
     <hyperlink ref="C2" r:id="rId3" display="Study@ind1"/>
   </hyperlinks>
@@ -607,8 +607,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -654,7 +654,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="6" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="6" customFormat="true" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>40</v>
       </c>
